--- a/resources/testdata/TestData.xlsx
+++ b/resources/testdata/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\study\TechnoCredits\JavaProgram\HybridAutomation\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7593487-72C0-48A9-B667-E680ACABEBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D316E20D-C9B9-46D1-8863-E5E596497985}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="CreateAccount" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>mkanani</t>
   </si>
@@ -106,9 +107,6 @@
     <t>Alias Address</t>
   </si>
   <si>
-    <t>automation89348934@gmail.com</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
     <t>User</t>
   </si>
   <si>
-    <t>Avbdggh@567</t>
-  </si>
-  <si>
     <t>PTC</t>
   </si>
   <si>
@@ -131,6 +126,12 @@
   </si>
   <si>
     <t>Maine</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>automation_practice@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -534,12 +535,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17853EFF-DF60-46D5-96A5-75A81366FEE0}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
     <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -598,19 +600,19 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -622,16 +624,16 @@
         <v>1997</v>
       </c>
       <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
       </c>
       <c r="M2">
         <v>37211</v>
@@ -649,4 +651,50 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6E1456-41D0-4153-ADC6-9F2FE41B7A94}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{527FCCAE-2499-45A8-AC4B-CE4D8D056939}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>